--- a/src/test/resources/RecipeExcelData/RecipeData.xlsx
+++ b/src/test/resources/RecipeExcelData/RecipeData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="353">
   <si>
     <t>RecipeID</t>
   </si>
@@ -1214,6 +1214,1348 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/bread-bhurji-4678r</t>
+  </si>
+  <si>
+    <t>Food category</t>
+  </si>
+  <si>
+    <t>No Category Available</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Recipe# 770
+12 Aug 22</t>
+  </si>
+  <si>
+    <t>Maharashtrian Patal Bhaji, Paatal Bhaji</t>
+  </si>
+  <si>
+    <t>For Maharashtrian Patal Bhaji
+2 1/2 cups chopped colocassia leaves (arbi ke patte)
+1/4 cup chana dal (split bengal gram) , washed and drained
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+2 tsp tamarind (imli) pulp
+1 tbsp chopped jaggery (gur)
+2 tbsp roasted and coarsely crushed peanuts
+salt to taste
+To Be Ground Into A Smooth Paste ( Without Using Any Water)
+2 tbsp grated coconut
+1 1/2 tsp roughly chopped green chillies
+1/4 cup chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>21 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the chana dal, colocassia leaves and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a non-stick kadhai, add the mustard seeds, cumin seeds, asafoetida and sauté on a medium flame for a few seconds.
+Add the prepared paste and sauté on a medium flame for 2 minutes.
+Add the chana dal-colocassia leaves mixture, tamarind pulp, jaggery, peanuts and salt, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 164 cal
+Protein 5.6 g
+Carbohydrates 16.1 g
+Fiber 4.1 g
+Fat 8.9 g
+Cholesterol 0 mg
+Sodium 12.5 mg
+Click here to view calories for Maharashtrian Patal Bhaji, Paatal Bhaji</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/maharashtrian-patal-bhaji-paatal-bhaji-770r</t>
+  </si>
+  <si>
+    <t>Recipe# 41753
+24 Jun 22</t>
+  </si>
+  <si>
+    <t>Ginger Cinnamon Tea</t>
+  </si>
+  <si>
+    <t>For Ginger Cinnamon Tea
+2 tbsp ginger (adrak) roundels
+1 small stick cinnamon (dalchini)
+1 tsp honey , optional</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+For ginger cinnamon tea
+To make ginger cinnamon tea, combine the ginger, cinnamon and 2 cups of water in a non-stick saucepan. Mix well, cover with a lid and cook on a medium flame for 8 minutes.
+Strain the mixture.
+Add the honey and mix well.
+Serve the ginger cinnamon tea warm.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 5 cal
+Protein 0 g
+Carbohydrates 1.4 g
+Fiber 0 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0.1 mg
+Click here to view calories for Ginger Cinnamon Tea</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ginger-cinnamon-tea-41753r</t>
+  </si>
+  <si>
+    <t>Recipe# 3892
+14 Jun 22</t>
+  </si>
+  <si>
+    <t>Bajra Roti</t>
+  </si>
+  <si>
+    <t>For Bajra Roti
+2 cups bajra (black millet) flour
+1/4 cup whole wheat flour (gehun ka atta)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+4 tsp ghee for smearing
+white butter</t>
+  </si>
+  <si>
+    <t>Method
+For bajra roti
+Combine the bajra flour, whole wheat flour and salt in a deep bowl and knead into a soft dough using approx. ¾ cup of warm water.
+Divide the dough into 8 equal portions.
+Roll out a portion of the dough into a 150 mm. (6") diameter thick roti using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle), place the roti over it and cook it for a few seconds or till a few bristles appear on top.
+Turn over the roti and cook the other side for a few more seconds.
+Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
+Smear 1/2 tsp ghee on top.
+Repeat steps 3 to 7 to make 7 more bajra rotis.
+Serve bajra roti | bajre ki roti | healthy pearl millet roti | rajasthani bajra roti immediately with white butter.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Aam ki Launji 
+Bharwa Lauki ( Rajasthani Recipe) 
+Carrot Pickle, Instant Gajar ka Achar 
+Fresh Ginger Pickle 
+Instant Lemon Pickle 
+Lahsun ki Chutney, Lehsun Chutney 
+Masala Tinda, Tinda Ki Subzi 
+Nutrient values (Abbrv) per roti
+Energy 123 cal
+Protein 3.3 g
+Carbohydrates 19.1 g
+Fiber 3.2 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 3.4 mg
+Click here to view calories for Bajra Roti</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-roti-3892r</t>
+  </si>
+  <si>
+    <t>Recipe# 40185
+05 Oct 21</t>
+  </si>
+  <si>
+    <t>Onion Tomato Koshimbir</t>
+  </si>
+  <si>
+    <t>For Onion Tomato Koshimbir
+1/2 cup chopped onions
+1 1/4 cups chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+1 1/2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 1/2 tsp roughly chopped green chillies</t>
+  </si>
+  <si>
+    <t>Method
+For onion tomato koshimbir
+To make onion tomato koshimbir, combine the onions, tomatoes, coriander and salt in a deep bowl and mix well. Keep aside.
+Heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida, green chillies and sauté on a medium flame for a few seconds.
+Pour the tempering over the tomato-onion mixture and mix well.
+Serve the onion tomato koshimbir immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.9 g
+Fiber 1 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 7.8 mg
+Click here to view calories for Onion Tomato Koshimbir</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/onion-tomato-koshimbir-40185r</t>
+  </si>
+  <si>
+    <t>Recipe# 763
+29 Sep 21</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>Method
+For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg
+Click here to view calories for Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>Recipe# 41719
+17 Sep 21</t>
+  </si>
+  <si>
+    <t>Kokum and Chia Seed Drink</t>
+  </si>
+  <si>
+    <t>1/2 cup semi dried kokum
+1 1/2 tsp chia seeds or falooda seeds (subza)
+2 tbsp powdered sugar</t>
+  </si>
+  <si>
+    <t>Method
+Combine the chia seeds and ¼ cup water in a small bowl, mix well and keep aside for 30 minutes.
+Combine the semi-dried kokum and ½ cup of water in a deep bowl, mix well and keep aside for 30 minutes.
+Blend the soaked kokum in a mixer along with the kokum water and blend till smooth.
+Transfer the kokum mixture and 2½ cups of cold water in a deep bowl and mix well.
+Strain the mixture using a strainer.
+Add the powdered sugar and the chia seeds and mix well.
+Pour equal quantities of the drink into 4 individual glasses.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 31 cal
+Protein 0.3 g
+Carbohydrates 6 g
+Fiber 0.6 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 0 mg
+Click here to view calories for Kokum and Chia Seed Drink</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/kokum-and-chia-seed-drink-41719r</t>
+  </si>
+  <si>
+    <t>Recipe# 1654
+13 Sep 21</t>
+  </si>
+  <si>
+    <t>Tomato Chutney ( Idlis and Dosas)</t>
+  </si>
+  <si>
+    <t>For Tomato Chutney
+1 cup finely chopped tomatoes
+3 tsp oil
+1 tsp chana dal (split bengal gram)
+1 tsp urad dal (split black lentils)
+8 curry leaves (kadi patta)
+2 tsp finely chopped green chillies
+1/4 cup finely chopped onions
+turmeric powder (haldi)
+salt to taste
+1/2 tsp mustard seeds ( rai / sarson)
+1 whole dry kashmiri red chilli , broken into pieces</t>
+  </si>
+  <si>
+    <t>Method
+For tomato chutney
+To make tomato chutney, heat 2 tsp of oil in a broad non-stick pan, add the chana dal, urad dal and curry leaves and sauté on a medium flame for 1 minute or till the dals turn light brown in colour.
+Add the green chillies and onions and sauté on a medium flame for 1 more minute.
+Add the tomatoes and 2 tbsp of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the turmeric powder and salt, mix well and cook on a medium flame for 1 minute.
+Allow it to cool completely and blend in a mixer till smooth. Keep aside.
+Heat the remaining 1 tsp of oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the red chillies and sauté on a medium flame for 30 seconds.
+Remove from the flame and pour this tempering over the tomato chutney and mix well.
+Serve the tomato chutney immediately or store refrigerated in an air-tight container for 2 days.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Dal and Rice Dosa 
+Udipi Style Set Dosa, Sponge Dosa 
+Vermicelli Nut Idli 
+Nutrient values (Abbrv) per tbsp
+Energy 31 cal
+Protein 0.6 g
+Carbohydrates 2.1 g
+Fiber 0.6 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 3.8 mg
+Click here to view calories for Tomato Chutney ( Idlis and Dosas)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-chutney----idlis-and-dosas-1654r</t>
+  </si>
+  <si>
+    <t>Recipe# 7468
+05 Apr 19</t>
+  </si>
+  <si>
+    <t>Fenugreek and Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t>2 cups finely chopped fenugreek (methi) leaves
+1 cup sliced mushrooms (khumbh)
+1 cup brown rice
+2 tsp oil
+2 tsp finely chopped green chillies
+1 tsp finely chopped ginger (adrak)
+1 tbsp finely chopped garlic (lehsun)
+1 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+1/2 cup brinjal (baingan / eggplant) cubes
+1/2 cup surti papdi seeds (fresh vaal seeds)
+1/2 tsp chilli powder
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 151 cal
+Protein 3.9 g
+Carbohydrates 27.6 g
+Fiber 3.3 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 19.9 mg
+Click here to view calories for Fenugreek and Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
+  </si>
+  <si>
+    <t>Recipe# 38028
+18 Jul 21</t>
+  </si>
+  <si>
+    <t>Chana Dal and Cabbage Tikki</t>
+  </si>
+  <si>
+    <t>For Chana Dal and Cabbage Tikki
+1 cup soaked and drained chana dal (split bengal gram)
+1/2 cup finely chopped cabbage
+1 tbsp roughly chopped green chillies
+2 tbsp finely chopped mint leaves (phudina)
+a pinch of turmeric powder (haldi)
+1 1/2 tsp cumin seeds (jeera) powder
+2 tbsp low fat curds (dahi)
+salt to taste
+1/4 cup besan (bengal gram flour)
+1 3/4 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For chana dal and cabbage tikki
+To make chana dal and cabbage tikki, combine the chana dal, green chillies and 2 tbsp of water in a mixer and blend to a coarse paste.
+Transfer the paste into a deep bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Shape a portion of the mixture into a 63 mm (2½ “) flat round tikki and immediately cook it on the tava (griddle) on a slow flame, using ¼ tsp oil, till it turns golden brown in colour from both the sides.
+Repeat the step 5 to make 5 more tikkis.
+Serve the chana dal and cabbage tikki immediately.
+Handy tip:
+Make the mixture for the tikkis just before cooking them and shape them one by one and directly cook them on a tava (griddle) and also do not shape the tikkis in advance.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Carrot Garlic Chutney ( Diabetic Recipe) 
+Whole Wheat Vegetable Noodles, Hakka Noodles for Diabetics 
+Nutrient values (Abbrv) per tikki
+Energy 104 cal
+Protein 5.2 g
+Carbohydrates 14.6 g
+Fiber 3.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 20.8 mg
+Click here to view calories for Chana Dal and Cabbage Tikki</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-and-cabbage-tikki-38028r</t>
+  </si>
+  <si>
+    <t>Recipe# 6420
+11 Jun 21</t>
+  </si>
+  <si>
+    <t>Usal ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>1 cup mixed sprouts (moong , chana , matki etc.)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup chopped onions
+1 cup chopped tomatoes
+3 tbsp readymade dry garlic chutney
+1/2 tsp turmeric powder (haldi)
+salt to taste
+For The Garnish
+1/4 cup finely chopped onions
+2 tbsp finely chopped coriander (dhania)
+For Serving
+lemon wedges</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida.
+When the cumin seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the tomatoes and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the dry garlic chutney, mix well and cook on a medium flame for 1 minute, while stirring once in between.
+Add the mixed sprouts, turmeric powder, salt and 1½ cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Garnish with onions and coriander and serve hot with lemon wedges.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Basmati Rice Without Pressure Cooker, Perfect Steamed Basmati Rice 
+Masala Pav, Microwave Recipe 
+Phulka Recipe, Indian Chapati Recipe 
+Rice Bhakri 
+Sprouts Tava Rice 
+Nutrient values (Abbrv) per serving
+Energy 98 cal
+Protein 3.2 g
+Carbohydrates 10.4 g
+Fiber 2.8 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 8 mg
+Click here to view calories for Usal ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/usal--healthy-subzi-6420r</t>
+  </si>
+  <si>
+    <t>Recipe# 22308
+27 Oct 22</t>
+  </si>
+  <si>
+    <t>Poha Nachni Handvo</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>For Poha Nachni Handvo
+1 cup thick beaten rice (jada poha) , washed and drained
+1/2 cup ragi (nachni / red millet) flour
+1/2 cup curd (dahi)
+1/2 cup grated bottle gourd (doodhi / lauki)
+1/2 cup grated carrot
+1/4 cup boiled green peas
+2 tsp ginger-green chilli paste
+1 tsp sugar
+1/8 tsp turmeric powder (haldi)
+1/8 tsp chilli powder
+1/4 tsp salt
+1 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+2 tsp sesame seeds (til)
+1/8 tsp asafoetida (hing)
+1 tsp oil for greasing</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the curds and 1½ cups of water in a deep bowl and whisk well.
+Add the poha, mix well and keep aside for 20 minutes.
+Add the bottle gourd, carrot, green peas, ginger-green chilli paste, sugar, turmeric powder, chilli powder and salt and mix well. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds, sesame seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add this tempering to the poha- curd-vegetable mixture and mix well.
+Add the nachni flour and mix well.
+Divide the batter into 6 equal portions.
+Heat a 100 mm. (4”) diameter non-stick pan and grease it with ¼ tsp of oil. Pour a portion of the batter on it and spread it evenly, cover with a lid and cook on a medium flame for 10 to 12 minutes or till both the sides turn golden brown in colour.
+Repeat step 8 to make 5 more handvos.
+Cut each handvo into 4 equal portions and serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per handvo
+Energy 125 cal
+Protein 2.9 g
+Carbohydrates 20.1 g
+Fiber 2.5 g
+Fat 3.3 g
+Cholesterol 2.7 mg
+Sodium 138.1 mg
+Click here to view calories for Poha Nachni Handvo</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
+  </si>
+  <si>
+    <t>Recipe# 42385
+27 Apr 21</t>
+  </si>
+  <si>
+    <t>Dal Rasam, South Indian Toovar Dal Rasam</t>
+  </si>
+  <si>
+    <t>For Dal Rasam
+1/2 cup toovar (arhar) dal , washed and drained
+1/2 tsp turmeric powder (haldi)
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+10 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1/4 cup chopped tomatoes
+1/2 cup tamarind (imli) water
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+For The Rasam Powder
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp fenugreek (methi) seeds
+1/2 tsp black peppercorns (kalimirch)
+1 tsp cumin seeds (jeera)
+2 tsp coriander (dhania) seeds
+10 curry leaves (kadi patta)
+For Serving
+steamed rice (chawal)</t>
+  </si>
+  <si>
+    <t>Method
+For the rasam powder
+Heat a small non-stick pan and dry roast all the ingredients on a medium flame for 2 minutes.
+Transfer the mixture into a plate and cool completely.
+Once cooled blend in a mixer till smooth. Keep aside.
+How to proceed
+Combine the toovar dal, turmeric powder and 1½ cups of water in a pressure cooker and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Whisk the dal well. Keep aside.
+Heat the oil in a deep non-stick pan, add the mustard seeds and urad dal and sauté on a medium flame for 1 minute.
+Add the kashmiri dry red chillies, curry leaves and asafoetida and sauté on a medium flame for a few seconds.
+Add the tomatoes and prepared rasam powder and sauté on a medium flame for 1 minute.
+Add the cooked whisked dal, tamarind water, salt and 2 cups of water, mix well and cook on a medium flame for 6 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and mix well.
+Serve hot with steamed rice.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 115 cal
+Protein 5.2 g
+Carbohydrates 17.5 g
+Fiber 2.2 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 10.5 mg
+Click here to view calories for Dal Rasam, South Indian Toovar Dal Rasam</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-rasam-south-indian-toovar-dal-rasam-42385r</t>
+  </si>
+  <si>
+    <t>Recipe# 33249
+30 Mar 21</t>
+  </si>
+  <si>
+    <t>Masoor Dal with Spinach, Protein Rich Recipes</t>
+  </si>
+  <si>
+    <t>For Masoor Dal With Spinach
+1 cup masoor (split red lentil) dal
+1 cup chopped spinach (palak)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2cup finely chopped onion
+1/2 tsp turmeric powder (haldi)
+2 tsp dried mango powder (amchur)
+1/2 cup finely chopped tomatoes
+salt to taste
+3/4 tsp chilli powder
+To Be Ground Into A Smooth Garlic-ginger-green Chilli Paste
+1 tbsp roughly chopped garlic (lehsun)
+1 tsp roughly ginger (adrak)
+1 tbsp roughly chopped green chillies
+For Serving With Masoor Dal With Spinach
+rotis</t>
+  </si>
+  <si>
+    <t>Method
+For masoor dal with spinach
+To make masoor dal with spinach, pour 1½ cups of water in a pressure cooker, add the masoor dal, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a kadhai, add the cumin seeds, mix well and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the cooked masoor dal, spinach, turmeric powder, dry mango powder, prepared garlic- ginger-green chilli paste, tomatoes and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add 1 cup of water and chilli powder, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve masoor dal with spinach hot with rotis.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Aloo Methi Tofu Parathas 
+Cabbage and Paneer Parathas ( Jain Recipe) 
+Cabbage Paratha, Patta Gobhi ka Paratha 
+Cheesy Cauliflower Paratha 
+Corn Parathas ( Growing Kids Recipe) 
+Dal and Soya Parathas 
+Gobhi Paneer Palak Paratha, Spinach and Cauliflower Paratha 
+Green Moong Dal and Spring Onion Paratha 
+Green Peas and Paneer Mini Parathas 
+Green Peas Paratha for Diabetics, Weight Loss, Heart 
+Mooli Dhania Paratha, Healthy Radish Coriander Paratha 
+Mooli Paratha, Punjabi Radish Paratha 
+Palak Paneer Paratha, Healthy Spinach Paneer Paratha 
+Paneer Spring Onion Paratha 
+Paneer Vegetable Paratha for Kids, Toddlers 
+Parathas, Plain Paratha, Basic Paratha Recipe 
+Paushtic Parathas 
+Rajma Cheese Parathas 
+Rice and Soya Parathas 
+Saatdhan Parathas 
+Spring Onion Stuffed Oats Paratha for Weight Loss 
+Tofu and Spinach Parathas 
+Nutrient values (Abbrv) per serving
+Energy 186 cal
+Protein 10.2 g
+Carbohydrates 24 g
+Fiber 4.9 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 15.3 mg
+Click here to view calories for Masoor Dal with Spinach, Protein Rich Recipes</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-with-spinach-protein-rich-recipes-33249r</t>
+  </si>
+  <si>
+    <t>Recipe# 41017
+18 Apr 23</t>
+  </si>
+  <si>
+    <t>Spinach Dosa</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>For Spinach Dosa
+1/2 cup spinach (palak) puree , refer handy tip
+1/4 cup urad dal (split black lentils)
+1/2 tsp fenugreek (methi) seeds
+1 cup whole wheat flour (gehun ka atta)
+salt to taste
+2 tsp oil for cooking
+For Serving With Spinach Dosa
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>Method
+Combine the urad dal and fenugreek seeds along with enough water in a deep bowl and soak for 2 hours. Drain well.
+Blend in a mixer using ½ cup of water till smooth.
+Transfer the urad dal-fenugreek seeds mixture into a deep bowl, add the spinach purée, whole wheat flour, salt and approx. 1 cup of water and mix very well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the dosa turns light brown in colour from both the sides.
+Repeat steps 4 to 6 to make 7 more dosas.
+Serve immediately with sambhar and coconut chutney.
+Handy tip:
+Approx. 2½ cups of chopped spinach when blanched, drained and blended in a mixer gives ½ cup of spinach purée.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per dosa
+Energy 94 cal
+Protein 3.9 g
+Carbohydrates 16.2 g
+Fiber 3.2 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 15.9 mg
+Click here to view calories for Spinach Dosa</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-dosa-41017r</t>
+  </si>
+  <si>
+    <t>Recipe# 38991
+17 Sep 22</t>
+  </si>
+  <si>
+    <t>Moong Dal and Spinach Idli</t>
+  </si>
+  <si>
+    <t>1/2 cup yellow moong dal (split yellow gram) , soaked for 3 hours and drained
+3/4 cup blanched and roughly chopped spinach
+3 green chillies , roughly chopped
+1 tbsp fresh low-fat curds
+salt to taste
+1/2 tsp fruit salt
+1/4 tsp oil for greasing
+For Serving
+sambhar
+healthy coconut chutney</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the yellow moong dal , spinach and green chillies and blend in a mixer to a smooth paste without using any water.
+Transfer the mixture into a bowl, add the curds and salt and mix well.
+Just before steaming, add the fruit salt to the batter and pour 2 tsp water over it.
+When the bubbles form, mix gently.
+Grease the idli moulds using oil, put spoonfuls of the batter into idli moulds and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool slightly, demould and serve immediately with sambhar and healthy coconut chutney.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Healthy Coconut Chutney 
+Sambar ( Sambhar, Idlis and Dosas) 
+Nutrient values (Abbrv) per idli
+Energy 26 cal
+Protein 1.8 g
+Carbohydrates 4.2 g
+Fiber 0.8 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 8.6 mg
+Click here to view calories for Moong Dal and Spinach Idli</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-and-spinach-idli-38991r</t>
+  </si>
+  <si>
+    <t>Recipe# 38986
+27 Feb 21</t>
+  </si>
+  <si>
+    <t>Zucchini and Carrot Pancake</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>3/4 cup thickly grated zucchini
+1/4 cup thickly grated carrot
+1/2 cup rice flour (chawal ka atta)
+1/4 cup besan (bengal gram flour)
+2 tbsp finely chopped coriander (dhania)
+1 tsp finely chopped green chillies
+salt to taste
+2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with approx. ½ cup of water in a deep bowl and mix well to make a batter of pouring consistency.
+Grease a non-stick tava (griddle) using ½ tsp of oil, pour one ladleful of the batter on it and spread it to form 75 mm. (3”) diameter thick circle.
+Cook it, using ¼ tsp of oil, till it turns crisp and golden brown in colour from both sides.
+Repeat with the remaining batter to make 5 more pancakes.
+Serve immediately.
+Handy tip :
+The quantity of water may vary depending on the quality of besan and semolina used.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Banana Raita 
+Carrot Beetroot Raita for Weight Loss 
+Cucumber Raita, Low Calorie Healthy Cooking 
+Fruit Raita, Healthy Mix Fruit Raita 
+Lauki ka Raita, Dudhi Raita 
+Low Calorie Spinach Raita Recipe 
+Mint and Onion Chutney 
+Tomato Chutney 
+Nutrient values (Abbrv) per pancake
+Energy 86 cal
+Protein 2.3 g
+Carbohydrates 14.1 g
+Fiber 1.7 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 8.4 mg
+Click here to view calories for Zucchini and Carrot Pancake</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-and-carrot-pancake-38986r</t>
+  </si>
+  <si>
+    <t>Recipe# 22144
+24 Feb 21</t>
+  </si>
+  <si>
+    <t>Brinjal Rice ( Zero Oil Recipe )</t>
+  </si>
+  <si>
+    <t>For The Powder
+2 cloves (laung / lavang)
+50 mm (2") piece cinnamon (dalchini)
+1 tsp coriander (dhania) seeds
+1 tsp cumin seeds (jeera)
+1 tsp caraway seeds (shahjeera)
+2 tbsp sesame seeds (til)
+1/2 tsp fenugreek (methi) seeds
+2 slit green chillies
+5 to 6 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+Other Ingredients
+1 1/2 cups sliced brinjals (baingan / eggplant)
+1 1/4 cups brown rice , soaked for 10 minutes and drained
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+2 cardamoms (elaichi)
+12 of cinnamon (dalchini)
+2 cloves (laung / lavang)
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the powder
+Heat a broad non-stick pan, add all the ingredients and dry roast on a medium flame for 1 minute. Keep aside and allow it to cool completely.
+Transfer the mixture to the mixer and blend it to a smooth powder. Keep aside.
+How to proceed
+Combine all the ingredients and the prepared powder alongwith 2½ cups of hot water in a pressure cooker and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 236 cal
+Protein 5.6 g
+Carbohydrates 44.6 g
+Fiber 5.3 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 4 mg
+Click here to view calories for Brinjal Rice ( Zero Oil Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brinjal-rice---zero-oil-recipe--22144r</t>
+  </si>
+  <si>
+    <t>Recipe# 3503
+24 Feb 21</t>
+  </si>
+  <si>
+    <t>Carrot Methi Subzi ( Delicious Diabetic Recipe)</t>
+  </si>
+  <si>
+    <t>For Carrot Methi Subzi
+2 cups carrot cubes
+2 cups finely chopped fenugreek (methi) leaves
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+3/4 cup finely chopped onions
+1 tsp finely chopped green chillies
+1 tsp finely chopped garlic (lehsun)
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander (dhania) powder
+salt to taste
+For Serving With Carrot Methi Subzi
+parathas
+rotis</t>
+  </si>
+  <si>
+    <t>Method
+For carrot methi subzi
+To make carrot methi subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the green chillies and garlic, mix well and sauté on a medium flame for 30 seconds.
+Add the fenugreek leaves, turmeric powder,coriander powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the carrots, salt and 1 cup of water, mix well and cover and cook for 7 to 8 minutes, while stirring occasionally.
+Serve the carrot methi subzi hot with whole wheat parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Bajra, Methi and Paneer Parathas 
+Lazeez Parathas 
+Nutrient values (Abbrv) per serving
+Energy 55 cal
+Protein 1.2 g
+Carbohydrates 6.6 g
+Fiber 2.6 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 21.6 mg
+Click here to view calories for Carrot Methi Subzi ( Delicious Diabetic Recipe)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-methi-subzi--delicious-diabetic-recipe-3503r</t>
+  </si>
+  <si>
+    <t>Recipe# 7437
+22 Feb 22</t>
+  </si>
+  <si>
+    <t>Oats and Roasted Capsicum Soup</t>
+  </si>
+  <si>
+    <t>For Oats and Roasted Capsicum Soup
+5 tbsp roasted quick cooking rolled oats
+2 medium red capsicum
+2 cups roughly chopped tomatoes
+2 bayleaves (tejpatta)
+1 garlic (lehsun) clove
+1 tsp dry red chilli flakes (paprika)
+salt to taste</t>
+  </si>
+  <si>
+    <t>18 mins</t>
+  </si>
+  <si>
+    <t>Method
+For oats and roasted capsicum soup
+To make oats and roasted capsicum soup, pierce each red capsicum with a fork and roast them over an open flame till they turn black.
+Cool, wash them and remove the skin, stem and seeds and chop them. Keep aside.
+Combine the tomatoes, bayleaves and garlic along with 2½ cups of water in a deep non-stick kadhai and cook on a medium flame for 10 minutes, while stirring occasionally or till the tomatoes turn soft. Discard the bayleaves.
+Remove from the flame and allow it to cool completely. Once cooled, combine the capsicum and tomatoes and blend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the chilli flakes, salt and ½ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the roasted oats, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve the oats and roasted capsicum soup immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 61 cal
+Protein 2.9 g
+Carbohydrates 10.7 g
+Fiber 3.6 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 12.1 mg
+Click here to view calories for Oats and Roasted Capsicum Soup</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-roasted-capsicum-soup-7437r</t>
+  </si>
+  <si>
+    <t>Recipe# 22219
+21 Jul 22</t>
+  </si>
+  <si>
+    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>For Cauliflower and Bajra Roti
+1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+Other Ingredients For Cauliflower and Bajra Roti
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roti
+Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg
+Click here to view calories for Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
+  </si>
+  <si>
+    <t>Recipe# 42771
+17 Oct 20</t>
+  </si>
+  <si>
+    <t>Dal Fry with Toor Dal</t>
+  </si>
+  <si>
+    <t>Dal Fry With Toor Dal
+3/4 cup toovar (arhar) dal , washed and drained
+1/4 cup masoor (split red lentil) dal , washed , soaked for 2 hours and drained
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tbsp ghee
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp grated ginger (adrak)
+1 tsp grated garlic (lehsun)
+2 green chillies , finely chopped
+1 whole dry kashmiri red chilli
+6 curry leaves (kadi patta)
+1/2 cup finely chopped tomatoes
+1/2 tsp red chilli powder
+2 pinches asafoetida (hing)
+1 tsp dried fenugreek leaves (kasuri methi)
+1/4 to 1/2 tsp garam masala
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Dal fry with toor dal
+To make dal fry with toor dal, combine the dals, 2½ cups of water, turmeric powder, and salt in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid and keep aside.
+Heat the ghee in a deep non-stick kadhai, add the mustard seeds, nigella seeds, cumin seeds and onions. Mix well and saute for 2-3 minutes.
+Add the grated ginger, garlic and green chilles and aute for 1-2 minutes.
+Add the kashmiri red chilli, curry leaves and and sauté on a medium flame for 2-3 minutes.
+Add the tomatoes and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add chiili powder and a pinch of hing. Mx well and cook for about 1 minute.
+Add the cooked dal mixture and ¼ cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the garam masala, mix well and cook for 1-2 minutes.
+Serve the dal fry with toor dal immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 207 cal
+Protein 9.7 g
+Carbohydrates 26 g
+Fiber 4.3 g
+Fat 7.2 g
+Cholesterol 0 mg
+Sodium 12.7 mg
+Click here to view calories for Dal Fry with Toor Dal</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-fry-with-toor-dal-42771r</t>
+  </si>
+  <si>
+    <t>Recipe# 7442
+03 Nov 22</t>
+  </si>
+  <si>
+    <t>Cabbage, Carrot and Lettuce Salad</t>
+  </si>
+  <si>
+    <t>For Cabbage , Carrot and Lettuce Salad
+1 cup shredded cabbage
+1 cup coarsely grated carrot
+1/2 cup shredded lettuce
+1/2 cup orange segments
+1/4 cup chopped coriander (dhania)
+1/2 tsp black salt (sanchal)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For cabbage, carrot and lettuce salad
+To make cabbage, carrot and lettuce salad, combine all the ingredients together in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 29 cal
+Protein 1 g
+Carbohydrates 6 g
+Fiber 1.9 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 19.2 mg
+Click here to view calories for Cabbage, Carrot and Lettuce Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-carrot-and-lettuce-salad-7442r</t>
+  </si>
+  <si>
+    <t>Recipe# 42412
+29 Oct 20</t>
+  </si>
+  <si>
+    <t>Masala Makhana Recipe, Healthy Lotus Seed Snack</t>
+  </si>
+  <si>
+    <t>For Masala Makhana
+3 cups lotus seeds (makhana)
+1 tbsp oil
+1/2 tsp chilli powder
+1/2 tsp cumin seeds (jeera) powder
+1 tsp chaat masala
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For masala makhana
+To make masala makhana, heat a deep non-stick pan, add the makhanas and dry roast them on a medium flame for 4 to 5 minutes.
+Transfer the makhanas in the deep bowl and keep aside.
+Put the oil in the same pan, add red chilli powder, cumin seeds powder, chaat masala and salt and mix well.
+Switch on the flame, add the roasted makhanas, mix well and sauté it on a medium flame for 2 to 3 minutes.
+Serve the masala makhana immediately or cool it completely and store it in an airtight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per cup
+Energy 128 cal
+Protein 3.8 g
+Carbohydrates 16.1 g
+Fiber 0 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 1.2 mg
+Click here to view calories for Masala Makhana Recipe, Healthy Lotus Seed Snack</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-makhana-recipe-healthy-lotus-seed-snack-42412r</t>
+  </si>
+  <si>
+    <t>Recipe# 5596
+03 May 22</t>
+  </si>
+  <si>
+    <t>Date and Walnut Balls</t>
+  </si>
+  <si>
+    <t>For Date and Walnut Balls
+1/2 cup finely chopped black seedless dates
+2 tbsp finely chopped walnuts (akhrot)
+1/4 tsp cardamom (elaichi) powder</t>
+  </si>
+  <si>
+    <t>Method
+For date and walnut balls
+To make date and walnut balls, combine all the ingredients in a deep bowl and mix well till the mixture binds well like a dough.
+Divide the mixture into 8 portions and shape each portion into a round ball.
+Serve the date and walnut balls immediately or store refrigerated in an air-tight container and serve it within 30 days.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per ball
+Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+Fiber 1 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 0 mg
+Click here to view calories for Date and Walnut Balls</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t>Recipe# 38987
+28 Jan 23</t>
+  </si>
+  <si>
+    <t>Oats Upma ( Breakfast Recipes)</t>
+  </si>
+  <si>
+    <t>For Oats Upma
+2 cups quick cooking rolled oats
+3 tsp olive oil or oil
+1 tsp turmeric powder (haldi)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+5 to 6 curry leaves (kadi patta)
+1 whole dry kashmiri red chilli , broken into pieces
+2 green chillies , slit
+1/2 cup finely chopped onions
+1/4 cup finely chopped carrot
+1/4 cup green peas
+1 tsp sugar , optional
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For oats upma
+To make oats upma, heat 1 tsp of olive oil in a non-stick pan, add the oats and ½ tsp of turmeric powder and sauté on a medium flame for 3 to 4 minutes or till it turns light brown in colour, stirring occasionally. Keep aside.
+Heat the remaining 2 tsp of olive oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves, red chillies and green chillies and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 1 minute or till the onions turn translucent.
+Add the carrots and green peas and sauté on a medium flame for 2 minutes.
+Add the oats mixture, sugar, salt and remaining ½ tsp of turmeric powder, mix well and cook on a medium flame for 1 minute, stirring continuously.
+Add 1½ cups of hot water, cover and cook on a slow flame for 2 minutes, stirring occasionally.
+Serve the oats upma immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Broccoli and Pear Juice 
+Carrot, Tomato and Beetroot Juice 
+Lemony Tomato, Orange and Carrot Juice 
+Muskmelon and Mint Juice 
+Muskmelon and Pineapple Juice 
+Muskmelon, Pineapple and Wheat Grass Juice 
+Spinach and Mint Juice 
+Tomato, Orange, Carrot and Papaya Juice 
+Nutrient values (Abbrv) per serving
+Energy 207 cal
+Protein 7.4 g
+Carbohydrates 30.6 g
+Fiber 5.4 g
+Fat 6.4 g
+Cholesterol 0 mg
+Sodium 5.2 mg
+Click here to view calories for Oats Upma ( Breakfast Recipes)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
+  </si>
+  <si>
+    <t>Recipe# 4665
+17 Oct 20</t>
+  </si>
+  <si>
+    <t>Rice and Moong Dal Idli</t>
+  </si>
+  <si>
+    <t>For Rice and Moong Dal Idli
+1/2 cup rice (chawal)
+1/2 cup green moong dal (split green gram)
+1/4 cup urad dal (split black lentils)
+1/4 tsp fenugreek (methi) seeds
+salt to taste
+For Serving With Rice and Moong Dal Idli
+sambhar
+chutney</t>
+  </si>
+  <si>
+    <t>Method
+For rice and moong dal idli
+To make rice and moong dal idli, soak the rice and green moong dal in a deep bowl with enough water for 2 hours.
+Soak the urad dal and fenugreek seeds in a deep bowl with enough water for 2 hours.
+Drain the rice and green moong dal mixture and blend in a mixer using approx. ½ cup of water till smooth.
+Drain the urad dal-fenugreek seeds in a mixer using approx. 5 tbsp of water till smooth.
+Transfer both the mixtures into a deep bowl, add the salt and mix very well.
+Cover with a lid and keep aside to ferment for 8 hours. Once fermented mix it very well.
+Put a little batter into each greased idli mould and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool the rice and moong dal idli slightly, demould and serve immediately with sambhar and chutney.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Anardana Pudina Chutney, Pomegranate Mint Chutney 
+Fresh Garlic Chutney ( Low Calorie Healthy Cooking ) 
+Garlic Tomato Chutney, Tomato Garlic Chutney 
+Nutritious Green Chutney 
+Nutrient values (Abbrv) per idli
+Energy 52 cal
+Protein 2.8 g
+Carbohydrates 9.9 g
+Fiber 0.9 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 3.5 mg
+Click here to view calories for Rice and Moong Dal Idli</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rice-and-moong-dal-idli-4665r</t>
+  </si>
+  <si>
+    <t>Recipe# 32997
+24 Sep 22</t>
+  </si>
+  <si>
+    <t>Paneer Tamatar Paratha</t>
+  </si>
+  <si>
+    <t>For The Chapatis
+1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1 1/2 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+To Be Mixed Into A Stuffing
+1/2 cup crumbled low fat paneer (cottage cheese)
+3/4 cup deseeded and chopped tomatoes
+1/4 cup chopped yellow capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the chapatis
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Cover the dough with a lid and keep aside for 15 minutes.
+Knead again using ¼ tsp oil till smooth.
+How to proceed
+To make paneer tamatar paratha, divide the stuffing into 10 equal portions and keep aside.
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little wheat flour for rolling. Spread a portion of the stuffing on half of the circle and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 9 more parathas.
+Serve the paneer tamatar paratha immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per paratha
+Energy 80 cal
+Protein 2.8 g
+Carbohydrates 15.1 g
+Fiber 2.7 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 9.7 mg
+Click here to view calories for Paneer Tamatar Paratha</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1284,12 +2626,15 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
     </row>
@@ -1301,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -1313,303 +2658,1040 @@
         <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>56</v>
+        <v>187</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>63</v>
+        <v>194</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>67</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>77</v>
+        <v>206</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F18" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>83</v>
+      <c r="F24" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/RecipeExcelData/RecipeData.xlsx
+++ b/src/test/resources/RecipeExcelData/RecipeData.xlsx
@@ -7,14 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="PCOS" r:id="rId3" sheetId="1"/>
-    <sheet name="Hyperthyroidism" r:id="rId4" sheetId="2"/>
-    <sheet name="Diabetic" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="228">
   <si>
     <t>RecipeID</t>
   </si>
@@ -34,6 +32,9 @@
     <t>CookingTime</t>
   </si>
   <si>
+    <t>Food category</t>
+  </si>
+  <si>
     <t>PreparationMethod</t>
   </si>
   <si>
@@ -43,14 +44,13 @@
     <t>RecipeURL</t>
   </si>
   <si>
-    <t>Recipe# 4223
-19 Jan 23</t>
+    <t>Recipe# 4223</t>
   </si>
   <si>
     <t>Healthy Garlic Oats and Vegetable Soup, Vegetable Soup with Oats</t>
   </si>
   <si>
-    <t>PCOS recipes</t>
+    <t>No Category Available</t>
   </si>
   <si>
     <t>For Healthy Garlic Oats and Vegetable Soup
@@ -69,6 +69,9 @@
     <t>10 mins</t>
   </si>
   <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
     <t>Method
 For healthy garlic oats and vegetable soup
 To make healthy garlic oats and vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
@@ -91,51 +94,7 @@
     <t>https://www.tarladalal.com/healthy-garlic-oats-and-vegetable-soup-vegetable-soup-with-oats-4223r</t>
   </si>
   <si>
-    <t>Recipe# 40603
-14 Dec 22</t>
-  </si>
-  <si>
-    <t>Baingan Bhaja, Bengali Begun Bhaja</t>
-  </si>
-  <si>
-    <t>For Baingan Bhaja
-18 big brinjal (baingan / eggplant) slices
-2 tsp chilli powder
-1/2 tsp turmeric powder (haldi)
-1 tbsp lemon juice
-1/4 cup besan (bengal gram flour)
-salt to taste
-2 tsp oil for greasing and cooking</t>
-  </si>
-  <si>
-    <t>20 mins</t>
-  </si>
-  <si>
-    <t>Method
-For baingan bhaja
-To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
-Add the baingan slices and mix well. Keep aside.
-Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
-Repeat step 3 to make 1 more batch.
-Serve the baingan bhaja immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 43 cal
-Protein 1.5 g
-Carbohydrates 4.6 g
-Fiber 3 g
-Fat 2.1 g
-Cholesterol 0 mg
-Sodium 4.3 mg
-Click here to view calories for Baingan Bhaja, Bengali Begun Bhaja</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/baingan-bhaja-bengali-begun-bhaja-40603r</t>
-  </si>
-  <si>
-    <t>Recipe# 42785
-08 Apr 23</t>
+    <t>Recipe# 42785</t>
   </si>
   <si>
     <t>Methi Bajra Paratha</t>
@@ -180,8 +139,7 @@
     <t>https://www.tarladalal.com/methi-bajra-paratha-42785r</t>
   </si>
   <si>
-    <t>Recipe# 40323
-08 Nov 22</t>
+    <t>Recipe# 40323</t>
   </si>
   <si>
     <t>How To Sprout Moong, Mung Beans</t>
@@ -219,134 +177,7 @@
     <t>https://www.tarladalal.com/how-to-sprout-moong-mung-beans-40323r</t>
   </si>
   <si>
-    <t>Recipe# 22444
-31 Oct 22</t>
-  </si>
-  <si>
-    <t>Spinach Tahini Wraps ( Nutritious Recipe for Pregnancy)</t>
-  </si>
-  <si>
-    <t>For The Roti
-2 cups whole wheat flour (gehun ka atta)
-1/4 cup spinach (palak) puree
-2 tsp oil
-1/2 tsp salt
-For The Filling
-1 cup grated and boiled mixed vegetables (carrots , french bean and potatoes)
-1/2 cup finely chopped onions
-2 green chillies , finely chopped
-2 tbsp chopped coriander (dhania)
-2 tsp oil
-salt to taste
-For The Spicy Tahini Paste
-1/2 cup sesame seeds (til)
-1/3 cup chana dal (split bengal gram)
-2 tsp vinegar
-2 tbsp fresh curd (dahi)
-1 garlic clove , chopped
-1 green chilli , chopped
-salt to taste
-To Be Ground Into Chilli-garlic Paste
-4 whole dry red chillies (pandi) , soaked
-3 to 4 garlic (lehsun) cloves
-1 tsp lemon juice
-1 tbsp water
-salt to taste
-Other Ingredients For Spinach Tahini Wraps
-1 cup lettuce , torn into pieces</t>
-  </si>
-  <si>
-    <t>25 mins</t>
-  </si>
-  <si>
-    <t>Method
-For the roti
-Combine all the ingredients and knead to a soft dough adding enough water. Keep aside for ½ hour.
-Divide the dough into 6 equal portions and roll out each portion into 150 mm. (6") diameter roti.
-Cook each roti lightly on both sides on a tava (griddle) and keep aside.
-For the filling
-Heat the oil in a pan, add the onions and sauté till they turn translucent.
-Add the mixed vegetables, green chillies, coriander and salt and sauté for another minute.
-Divide into 6 equal portions and keep aside.
-For the spicy tahini paste
-Roast the sesame seeds and chana dal separately on a tava (griddle). Grind them together in a mixer to a fine powder.
-Remove the powder in a bowl, add all the remaining ingredients and mix well.
-Keep refrigerated for atleast an hour.
-How to proceed
-Place one roti on a clean dry surface.
-Put an even layer of lettuce on it.
-Spread a thin layer of the spicy tahini paste on the lettuce and then a portion of the filling.
-Spread a little chilli-garlic paste on top of the filling and roll up tightly.
-Repeat with the remaining ingredients to make 5 more wraps. Serve immediately.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Broccoli and Pear Juice 
-Carrot and Black Grape Juice ( Party Drinks ) 
-Carrot Coriander Juice 
-Ginger Melon Juice, Ginger Watermelon Juice 
-Nutrient values (Abbrv) per wrap
-Energy 305 cal
-Protein 10.5 g
-Carbohydrates 45.6 g
-Fiber 10.2 g
-Fat 9.6 g
-Cholesterol 0.8 mg
-Sodium 301.5 mg
-Click here to view calories for Spinach Tahini Wraps ( Nutritious Recipe for Pregnancy)</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spinach-tahini-wraps--nutritious-recipe-for-pregnancy-22444r</t>
-  </si>
-  <si>
-    <t>Recipe# 22312
-Yesterday</t>
-  </si>
-  <si>
-    <t>One Meal Soup, Healthy Indian Dal Vegetable Soup</t>
-  </si>
-  <si>
-    <t>For One Meal Soup
-1/4 cup yellow moong dal (split yellow gram) , washed and drained
-2 tsp oil
-1 tsp finely chopped garlic (lehsun)
-1 tsp finely chopped ginger (adrak)
-1/4 tsp green chilli paste
-1/2 cup finely chopped onions
-1 1/2 cups blanched chopped mixed vegetables
-salt and to taste
-1 tbsp finely chopped dill leaves
-2 tsp lemon juice</t>
-  </si>
-  <si>
-    <t>Method
-For one meal soup
-To make one meal soup, in a pressure cooker combine moong dal along with 1½ cups of water and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid. Keep aside.
-Heat the oil in a deep pan, add the garlic, ginger, green chilli paste and onions and sauté on a medium flame for 2 minutes.
-Add the blanched mixed vegetables and sauté on medium flame for 1 minute.
-Add the moong dal mixture, salt and pepper to taste along with 1½ cups of water.
-Mix well and cook on medium flame for 3 to 4 minutes.
-Garnish with the dill leaves and lemon juice and mix well.
-Serve the one meal soup hot.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 102 cal
-Protein 4.9 g
-Carbohydrates 14.2 g
-Fiber 3.5 g
-Fat 2.8 g
-Cholesterol 0 mg
-Sodium 16.1 mg
-Click here to view calories for One Meal Soup, Healthy Indian Dal Vegetable Soup</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/one-meal-soup-healthy-indian-dal-vegetable-soup-22312r</t>
-  </si>
-  <si>
-    <t>Recipe# 35288
-13 Dec 22</t>
+    <t>Recipe# 35288</t>
   </si>
   <si>
     <t>Oats Moong Dal Tikki</t>
@@ -370,6 +201,9 @@
 healthy green chutney</t>
   </si>
   <si>
+    <t>25 mins</t>
+  </si>
+  <si>
     <t>Method
 For oats moong dal tikki
 To make oats moong dal tikki, clean, wash and boil the yellow moong dal in 1 cup of water in a deep pan till the dal is soft and cooked and all the water has evaporated.
@@ -395,50 +229,7 @@
     <t>https://www.tarladalal.com/oats-moong-dal-tikki-35288r</t>
   </si>
   <si>
-    <t>Recipe# 3394
-28 Jan 23</t>
-  </si>
-  <si>
-    <t>Fresh Turmeric and Ginger Pickle</t>
-  </si>
-  <si>
-    <t>For Fresh Turmeric and Ginger Pickle
-1/4 cup peeled and sliced tender ginger (adrak)
-1/4 cup peeled and sliced fresh turmeric (amba halad)
-2 tbsp lemon juice
-1 tsp salt</t>
-  </si>
-  <si>
-    <t>0 mins</t>
-  </si>
-  <si>
-    <t>Method
-For fresh turmeric and ginger pickle
-To make the fresh turmeric and ginger pickle, combine all the ingredients in a deep bowl and mix well.
-Transfer it to an air-tight glass jar, close the lid and set it aside in a cool, dry place for 4 to 5 hours for the flavours to blend well.
-Serve or store the fresh turmeric and ginger pickle refrigerated in the same glass jar. It stays fresh upto 6 to 8 months when refrigerated.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Cabbage and Spinach Roti, Three Flour Vegetable Roti 
-Chawal ki Roti 
-Methi Alu Parathas 
-Nutrient values (Abbrv) per serving
-Energy 34 cal
-Protein 0.6 g
-Carbohydrates 6.7 g
-Fiber 1 g
-Fat 0.5 g
-Cholesterol 0 mg
-Sodium 2714.3 mg
-Click here to view calories for Fresh Turmeric and Ginger Pickle</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/fresh-turmeric-and-ginger-pickle-3394r</t>
-  </si>
-  <si>
-    <t>Recipe# 42374
-20 Oct 22</t>
+    <t>Recipe# 42374</t>
   </si>
   <si>
     <t>How To Make Homemade Skimmed Milk</t>
@@ -474,52 +265,7 @@
     <t>https://www.tarladalal.com/how-to-make-homemade-skimmed-milk-42374r</t>
   </si>
   <si>
-    <t>Recipe# 6224
-19 Aug 22</t>
-  </si>
-  <si>
-    <t>Carrot Spinach and Parsley Vegetabe Juice</t>
-  </si>
-  <si>
-    <t>For Carrot Spinach and Parsley Vegetabe Juice
-3 cups carrot cubes , peeled
-1/4 cup roughly chopped spinach (palak)
-1/4 cup roughly chopped parsley stems with leaves
-2 tbsp roughly chopped celery (ajmoda) sticks
-1 tbsp lemon juice
-12 ice-cubes</t>
-  </si>
-  <si>
-    <t>5 mins</t>
-  </si>
-  <si>
-    <t>Method
-Carrot, spinach and parsley juice in vitamix
-To make carrot, spinach and parsley juice in vitamix, combine the carrots, spinach, parsley, celery, lemon juice and 2½ cups of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
-Serve immediately.
-Carrot, spinach and parsley juice in juicer
-Add the carrot cubes, chopped spinach, chopped parsley and chopped celery sticks a few at a time in the juicer.
-Add lemon juice and mix well.
-Add 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
-Serve carrot, spinach and parsley juice immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per glass
-Energy 28 cal
-Protein 0.7 g
-Carbohydrates 5.9 g
-Fiber 2.3 g
-Fat 0.2 g
-Cholesterol 0 mg
-Sodium 23.9 mg
-Click here to view calories for Carrot Spinach and Parsley Vegetabe Juice</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/carrot-spinach-and-parsley-vegetabe-juice-6224r</t>
-  </si>
-  <si>
-    <t>Recipe# 5535
-14 Dec 22</t>
+    <t>Recipe# 5535</t>
   </si>
   <si>
     <t>Garlic Vegetable Soup ( Healthy Heart)</t>
@@ -533,6 +279,9 @@
 salt and to taste
 2 tbsp quick cooking rolled oats
 2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>5 mins</t>
   </si>
   <si>
     <t>Method
@@ -560,673 +309,7 @@
     <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
   </si>
   <si>
-    <t>Recipe# 1328
-14 Mar 23</t>
-  </si>
-  <si>
-    <t>Apple and Oats Milkshake</t>
-  </si>
-  <si>
-    <t>Hyperthyroidism Diet recipes</t>
-  </si>
-  <si>
-    <t>For Apple and Oats Milkshake
-3/4 cup chilled apple cubes
-1 1/2 cups chilled almond milk
-1/4 cup quick cooking rolled oats</t>
-  </si>
-  <si>
-    <t>Method
-For apple and oats milkshake
-To make apple oats milkshake, combine all the ingredients in a mixer and blend till smooth and frothy.
-Pour equal quantities of the apple and oats milkshake into 3 individual glasses and serve immediately.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Cucumber Snack 
-Mushroom and Tomato Snack 
-Nutrient values (Abbrv) per glass
-Energy 56 cal
-Protein 1.7 g
-Carbohydrates 8.2 g
-Fiber 2.1 g
-Fat 2 g
-Cholesterol 0 mg
-Sodium 44.1 mg
-Click here to view calories for Apple and Oats Milkshake</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/apple-and-oats-milkshake-1328r</t>
-  </si>
-  <si>
-    <t>Recipe# 22254
-28 Jul 22</t>
-  </si>
-  <si>
-    <t>Barley Idli</t>
-  </si>
-  <si>
-    <t>For Barley Idli
-1 cup barley (jau)
-1/2 cup urad dal (split black lentils)
-1/2 tbsp fenugreek (methi) seeds
-salt to taste
-1 tsp fruit salt
-For Serving
-coconut chutney
-sambar</t>
-  </si>
-  <si>
-    <t>Method
-For barley idli
-To make barley idli, wash and soak the barley, urad dal and fenugreek seeds together in add enough water in a deep bowl. Cover with a lid and allow them to soak for 5 to 6 hours. Drain well.
-Transfer the mixture into a mixer jar and blend into a smooth paste using approx. 1½ cups of water.
-Transfer the paste into a deep bowl, cover it with a lid and keep aside to ferment for at least 12 hours.
-After fermentation, mix the batter well once again.
-Add the salt and mix well.
-Just before steaming, add the fruit salt and 2 tbsp of warm water and mix gently.
-Pour spoonfuls of the batter into each of the greased idli moulds.
-Steam in an idli steamer for 8 to 10 minutes or till they are cooked.
-Repeat steps 7 to 9 to make remaining idlis.
-Serve the barley idli hot with coconut chutney and sambar.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Farali Idli Sambar 
-Methi Leaves Sambhar 
-Restaurant Style Sambar, Sambar with Sambar Masala 
-Sambar ( Mumbai Roadside Recipe) 
-Sambhar 
-Nutrient values (Abbrv) per idli
-Energy 34 cal
-Protein 1.7 g
-Carbohydrates 6.5 g
-Fiber 0.7 g
-Fat 0.1 g
-Cholesterol 0 mg
-Sodium 2.2 mg
-Click here to view calories for Barley Idli</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/barley-idli-22254r</t>
-  </si>
-  <si>
-    <t>Recipe# 39887
-12 May 22</t>
-  </si>
-  <si>
-    <t>Baked Oats Puri</t>
-  </si>
-  <si>
-    <t>For Baked Oats Puri
-1/2 cup oats flour , refer handy tip
-1 cup whole wheat flour (gehun ka atta)
-2 tsp dried fenugreek leaves (kasuri methi)
-2 tsp black sesame seeds (kala til)
-2 tbsp low fat curds (dahi)
-1/2 tsp garlic (lehsun) paste
-1 tsp green chilli paste
-1/2 tsp chilli powder
-2 tsp oil
-salt to taste
-whole wheat flour (gehun ka atta) for rolling</t>
-  </si>
-  <si>
-    <t>Method
-For baked oats puri
-To make baked oats puris, combine all the ingredients in a deep bowl and knead into a stiff dough using enough water.
-Divide the dough into 20 equal portions and roll out each portion into a 75 mm. (3”) diameter circle using a little whole wheat flour for rolling.
-Prick the rolled out puris with a fork at regular intervals.
-Arrange them on a baking tray and bake in a pre-heated oven at 200°c (400°f) for 20 minutes, turning them once after 10 minutes or till they turn crisp.
-Serve or store the baked oats puris in an air-tight container.
-Handy tip:
-To get ½ cup of oats flour, blend ½ cup of quick cooking rolled oats in a mixer to a smooth powder.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per puri
-Energy 36 cal
-Protein 1.2 g
-Carbohydrates 6.2 g
-Fiber 1 g
-Fat 0.8 g
-Cholesterol 0 mg
-Sodium 2.1 mg
-Click here to view calories for Baked Oats Puri</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/baked-oats-puri-39887r</t>
-  </si>
-  <si>
-    <t>Recipe# 3051
-04 May 21</t>
-  </si>
-  <si>
-    <t>How To Make Barley Water for Babies ( Above 6 Months)</t>
-  </si>
-  <si>
-    <t>Barley Water For Babies
-1 tbsp barley (jau)</t>
-  </si>
-  <si>
-    <t>Method
-Barley water for babies
-To make barley water for babies, combine the barley and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
-Allow the steam to escape before opening the lid.
-Blend in a mixer till smooth.
-Strain the barley mixture using a strainer.
-Serve the barley water for babies lukewarm.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per cup
-Energy 40 cal
-Protein 1.4 g
-Carbohydrates 8.4 g
-Fiber 0.5 g
-Fat 0.2 g
-Cholesterol 0 mg
-Sodium 1.1 mg
-Click here to view calories for How To Make Barley Water for Babies ( Above 6 Months)</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/how-to-make-barley-water-for-babies--above-6-months-3051r</t>
-  </si>
-  <si>
-    <t>Recipe# 40115
-12 Sep 22</t>
-  </si>
-  <si>
-    <t>Barley and Moong Dal Khichdi</t>
-  </si>
-  <si>
-    <t>For Barley and Moong Dal Khichdi
-1/2 cup barley (jau) , soaked for 30 minutes and drained
-1 cup yellow moong dal (split yellow gram)
-2 tsp olive oil
-1/2 tbsp cumin seeds (jeera)
-1/4 tsp asafoetida (hing)
-1/4 tsp turmeric powder (haldi)
-1 tsp finely chopped green chillies
-salt to taste
-For Serving With Barley and Moong Dal Khichdi
-low-fat curd , made from 99.7% fat-free</t>
-  </si>
-  <si>
-    <t>11 mins</t>
-  </si>
-  <si>
-    <t>Method
-For barley and moong dal khichdi
-To make barley and moong dal khichdi, heat the olive oil in a pressure cooker and add the cumin seeds.
-When the seeds crackle, add the asafoetida and turmeric powder and sauté on a medium flame for 10 seconds.
-Add the green chilllies and sauté on a medium flame for a few more seconds.
-Add the barley, yellow moong dal, salt and 4 cups of water, mix well and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid.
-Serve the barley and moong dal khichdi immediately with low-fat curds.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 214 cal
-Protein 11.3 g
-Carbohydrates 34.9 g
-Fiber 3.8 g
-Fat 3.2 g
-Cholesterol 0 mg
-Sodium 11.9 mg
-Click here to view calories for Barley and Moong Dal Khichdi</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/barley-and-moong-dal-khichdi-40115r</t>
-  </si>
-  <si>
-    <t>Recipe# 35934
-22 Feb 21</t>
-  </si>
-  <si>
-    <t>Cabbage Capsicum Sabzi, Healthy Simla Mirch Gobi Sabzi</t>
-  </si>
-  <si>
-    <t>For Cabbage and Capsicum Subzi
-2 cups shredded cabbage
-1/2 cup sliced capsicum
-1 tsp oil
-1/4 tsp mustard seeds ( rai / sarson)
-a pinch of asafoetida (hing)
-a pinch of turmeric powder (haldi)
-1 tsp finely chopped green chillies
-salt to taste
-1/2 tsp coriander (dhania) powder
-1 tsp lemon juice</t>
-  </si>
-  <si>
-    <t>Method
-For cabbage and capsicum subzi
-To make cabbage and capsicum subzi, heat the oil in a broad non-stick pan and add the mustard seeds.
-When the seeds crackle, add the asafoetida, turmeric powder, green chillies and sauté on a medium flame for a few seconds.
-Add the cabbage, capsicum and salt, 1 tbsp of water, mix well and cook on medium flame for 2 to 3 minutes, while stirring occasionally.
-Add the coriander seeds powder and lemon juice, mix well and cook on a slow flame for 1 more minute, while stirring occasionally.
-Serve the cabbage and capsicum subzi immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 29 cal
-Protein 1 g
-Carbohydrates 3.1 g
-Fiber 1.6 g
-Fat 1.4 g
-Cholesterol 0 mg
-Sodium 7.9 mg
-Click here to view calories for Cabbage Capsicum Sabzi, Healthy Simla Mirch Gobi Sabzi</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cabbage-capsicum-sabzi-healthy-simla-mirch-gobi-sabzi-35934r</t>
-  </si>
-  <si>
-    <t>Recipe# 38475
-24 Aug 20</t>
-  </si>
-  <si>
-    <t>Oats Idli</t>
-  </si>
-  <si>
-    <t>For Oats Idli
-1 cup quick-cooking rolled oats
-1/4 cup urad dal (split black lentils)
-2 tbsp curd (dahi)
-1 tsp ginger-green chilli paste
-salt to taste
-1 tsp fruit salt
-1/2 tsp oil for greasing
-For Serving With Oats Idli
-sambhar</t>
-  </si>
-  <si>
-    <t>Method
-For oats idli
-To make oats idli, combine the oats and urad dal and blend in a mixer to a smooth powder.
-Add 1 cups of water, curd, ginger- green chilli paste and salt and mix well to make a batter of pouring consistency.
-Cover and keep aside to rest for 1 hour.
-Mix the batter well, add the fruit salt and 2 tsp of water and mix it gently.
-Grease the idli moulds using oil and put spoonfuls of batter into them.
-Steam in an idli steamer for 10 to 12 minutes or till they are cooked.
-Demould the oats idlis and serve idli immediately with sambhar.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Chutney Podi, Thengai Powder, Chutney Powder 
-Coconut Chutney ( Idlis and Dosas) 
-Sambar ( Sambhar, Idlis and Dosas) 
-Nutrient values (Abbrv) per idli
-Energy 30 cal
-Protein 1.6 g
-Carbohydrates 5 g
-Fiber 0.9 g
-Fat 0.5 g
-Cholesterol 0 mg
-Sodium 1.3 mg
-Click here to view calories for Oats Idli</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-idli-38475r</t>
-  </si>
-  <si>
-    <t>Recipe# 40321
-09 Oct 22</t>
-  </si>
-  <si>
-    <t>Oats and Cabbage Roti</t>
-  </si>
-  <si>
-    <t>For Oats and Cabbage Roti
-1/4 cup quick cooking rolled oats
-1/2 cup grated cabbage
-1/2 cup whole wheat flour (gehun ka atta)
-1 tsp sesame seeds (til)
-1/2 tsp chilli powder
-1/4 tsp turmeric powder (haldi)
-1/4 tsp asafoetida (hing)
-2 tsp garlic (lehsun) paste
-1 tsp oil
-salt to taste
-whole wheat flour (gehun ka atta) for rolling
-2 tsp oil for cooking
-For Serving With Oats and Cabbage Roti
-low-fat curd , made from 99.7% fat-free</t>
-  </si>
-  <si>
-    <t>Method
-For oats and cabbage roti
-To make oats and cabbage roti, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
-Divide the dough into 8 equal portions.
-Roll out a portion of the dough into a 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
-Heat a non-stick tava (griddle) and cook it, on a medium flame using ¼ tsp oil till golden brown spots appear on both the sides.
-Repeat steps 3 and 4 to make 7 more rotis.
-Serve the oats and cabbage roti immediately with low-fat cruds.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per roti
-Energy 56 cal
-Protein 1.5 g
-Carbohydrates 7.7 g
-Fiber 1.4 g
-Fat 2.3 g
-Cholesterol 0 mg
-Sodium 2.6 mg
-Click here to view calories for Oats and Cabbage Roti</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-and-cabbage-roti-40321r</t>
-  </si>
-  <si>
-    <t>Recipe# 6409
-04 Jan 19</t>
-  </si>
-  <si>
-    <t>Chawli Bhaji</t>
-  </si>
-  <si>
-    <t>Diabetic recipes recipes</t>
-  </si>
-  <si>
-    <t>8 cups chopped chawli (cow pea / lobhia) leaves
-1/4 tsp turmeric powder (haldi)
-salt to taste
-2 tsp oil
-1 tsp mustard seeds ( rai / sarson)
-8 to 10 curry leaves (kadi patta)
-4 whole dry kashmiri red chillies , broken into pieces
-2 tsp urad dal (split black lentils)
-a pinch of asafoetida (hing)</t>
-  </si>
-  <si>
-    <t>Method
-Combine the chawli leaves, turmeric powder, salt and 1¾ cups of water in a deep non-stick pan and cook on a medium flame for 5 to 7 minutes or till half of the water dries out. Keep aside to cool slightly.
-Blend in a mixer till smooth and keep aside.
-Heat the oil in a non-stick kadhai and add the mustard seeds.
-When the seeds crackle, add the curry leaves, red chillies, urad dal and asafoetida and sauté on a medium flame for a few seconds.
-Add the chawli mixture and a little salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Nutritious Lehsuni Methi Roti 
-Nutrient values (Abbrv) per serving
-Energy 91 cal
-Protein 5.9 g
-Carbohydrates 9.5 g
-Fiber 5.7 g
-Fat 3.2 g
-Cholesterol 0 mg
-Sodium 313.6 mg
-Click here to view calories for Chawli Bhaji</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/chawli-bhaji-6409r</t>
-  </si>
-  <si>
-    <t>Recipe# 42488
-08 Mar 23</t>
-  </si>
-  <si>
-    <t>Lauki Chilla, Bottle Gourd Doodhi Cheela</t>
-  </si>
-  <si>
-    <t>For Lauki Chilla
-3/4 cup grated bottle gourd (doodhi / lauki)
-1 cup besan (bengal gram flour)
-1/4 cup curd (dahi)
-1 tsp chilli powder
-1/4 tsp asafoetida (hing)
-1/4 tsp turmeric powder (haldi)
-salt to taste
-1 3/4 tsp coconut oil for greasing
-3 1/2 tsp coconut oil for cooking
-For Serving With Lauki Chilla
-tomato ketchup
-green chutney</t>
-  </si>
-  <si>
-    <t>Method
-For lauki chilla
-To make lauki chilla, combine all the ingredients in a deep bowl along with ½ cup of water and mix well.
-Heat and grease a non-stick tava (griddle) grease it using ¼ tsp of oil. Pour a ladle of the batter on the tava (griddle) and spread it evenly to make a 125 mm. (5”) diameter circle.
-Cook it using ½ tsp of oil till both the sides turn golden brown in colour.
-Make 6 more chilas.
-Serve the lauki chilla immediately with tomato ketchup and green chutney.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per chila
-Energy 96 cal
-Protein 3.3 g
-Carbohydrates 9.2 g
-Fiber 2.4 g
-Fat 5.1 g
-Cholesterol 1.1 mg
-Sodium 12 mg
-Click here to view calories for Lauki Chilla, Bottle Gourd Doodhi Cheela</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/lauki-chilla-bottle-gourd-doodhi-cheela-42488r</t>
-  </si>
-  <si>
-    <t>Recipe# 39219
-21 Feb 23</t>
-  </si>
-  <si>
-    <t>Carrot and Cabbage High Fibre Chutney Open Toast</t>
-  </si>
-  <si>
-    <t>1 cup thickly grated carrot
-1 cup shredded cabbage
-1 recipe high fibre chutney
-6 whole wheat bread slices
-salt to taste
-1 3/4 tsp oil for greasing and cooking</t>
-  </si>
-  <si>
-    <t>Method
-Combine the high fibre chutney, cabbage, carrots and salt in a bowl, mix well and keep aside.
-Place 2 bread slices on a flat surface and spread a portion of the chutney-vegetable topping evenly over the bread slices.
-Heat and grease a non-stick tava (griddle) using ¼ tsp of oil and place each open toast with the mixture side facing downwards and cook, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
-Repeat steps 2 and 3 to make 2 more batches.
-Cut each toast into 4 equal triangles and serve immediately.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Muskmelon, Apple and Green Grapes Juice 
-Pineapple, Apple and Cucumber Juice 
-Nutrient values (Abbrv) per open toast
-Energy 75 cal
-Protein 2.2 g
-Carbohydrates 12.4 g
-Fiber 1.4 g
-Fat 1.8 g
-Cholesterol 0 mg
-Sodium 8 mg
-Click here to view calories for Carrot and Cabbage High Fibre Chutney Open Toast</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/carrot-and-cabbage-high-fibre-chutney-open-toast-39219r</t>
-  </si>
-  <si>
-    <t>Recipe# 42323
-13 Feb 23</t>
-  </si>
-  <si>
-    <t>How To Make Karela Juice, Bitter Gourd Juice for Diabetes</t>
-  </si>
-  <si>
-    <t>For Karela Juice
-1 cup deseeded and roughly chopped bitter gourd (karela)
-1/2 tsp lemon juice
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-For karela juice
-To make karela juice, combine the karela and ½ cup of water in mixer and blend till smooth.
-Strain the mixture using ½ cup of water.
-Add the lemon juice and salt and mix well.
-Pour equal quantities of the karela juice into 2 small glasses and serve immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per small glass
-Energy 15 cal
-Protein 0.9 g
-Carbohydrates 2.6 g
-Fiber 2.5 g
-Fat 0.1 g
-Cholesterol 0 mg
-Sodium 1.4 mg
-Click here to view calories for How To Make Karela Juice, Bitter Gourd Juice for Diabetes</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/how-to-make-karela-juice-bitter-gourd-juice-for-diabetes-42323r</t>
-  </si>
-  <si>
-    <t>Recipe# 42772
-21 Dec 22</t>
-  </si>
-  <si>
-    <t>Turmeric with Black Pepper for Anti-inflammation</t>
-  </si>
-  <si>
-    <t>For Turmeric With Black Pepper For Anti-inflammation
-1 tsp turmeric powder (haldi)
-1/8 tsp freshly ground black pepper (kalimirch)
-1 tsp melted ghee</t>
-  </si>
-  <si>
-    <t>Method
-For turmeric with black pepper
-To make turmeric with black pepper for anti-inflammation, combine the turmeric powder, black pepper powder and ghee in a small plate and mix well.
-Serve the turmeric with black pepper for anti-inflammation immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 52 cal
-Protein 0.4 g
-Carbohydrates 1.3 g
-Fiber 0.4 g
-Fat 5.2 g
-Cholesterol 0 mg
-Sodium 0.7 mg
-Click here to view calories for Turmeric with Black Pepper for Anti-inflammation</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/turmeric-with-black-pepper-for-anti-inflammation-42772r</t>
-  </si>
-  <si>
-    <t>Recipe# 3513
-15 Dec 22</t>
-  </si>
-  <si>
-    <t>Carrot Garlic Chutney ( Diabetic Recipe)</t>
-  </si>
-  <si>
-    <t>1 cup carrot , thickly grated
-2 tbsp chopped garlic (lehsun)
-2 tsp chilli powder
-1/4 tsp lemon juice
-1 tsp oil
-1 tsp salt</t>
-  </si>
-  <si>
-    <t>30 mins</t>
-  </si>
-  <si>
-    <t>Method
-Sprinkle ½ teaspoon of salt on the grated carrots and leave aside for 30 minutes. Drain out the juice.
-Grind the garlic, chilli powder, lemon juice and the remaining ½ teaspoon of salt along with ¼ cup of water to a fine paste in a blender or a mortar and pestle.
-Combine the carrots, garlic paste and oil in a bowl and mix well.
-Serve immediately.
-Tips
-The chutney will stay well if refrigerated for upto 4 days.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Bajra, Methi and Paneer Parathas 
-Green Peas Paratha for Diabetics, Weight Loss, Heart 
-Karela Muthia, Bitter Gourd Steamed Dumpling 
-Nutrient values (Abbrv) per tbsp
-Energy 9 cal
-Protein 0.1 g
-Carbohydrates 1.2 g
-Fiber 0.4 g
-Fat 0.4 g
-Cholesterol 0 mg
-Sodium 197.1 mg
-Click here to view calories for Carrot Garlic Chutney ( Diabetic Recipe)</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/carrot-garlic-chutney--diabetic-recipe-3513r</t>
-  </si>
-  <si>
-    <t>Recipe# 4678
-31 Oct 22</t>
-  </si>
-  <si>
-    <t>Bread Bhurji</t>
-  </si>
-  <si>
-    <t>For Bread Bhurji
-5 slices whole wheat bread , cut into cubes
-1/2 cup low fat curds (dahi)
-1/4 tsp turmeric powder (haldi)
-1 tsp cumin seeds (jeera)
-1 slit green chilli
-3 to 4 curry leaves (kadi patta)
-1 tsp grated ginger (adrak)
-1/4 cup sliced onions
-2 tsp oil
-salt to taste
-For The Garnish
-2 tbsp chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>9 mins</t>
-  </si>
-  <si>
-    <t>Method
-For bread bhurji
-To make bread bhurji, in a bowl, combine the curds, turmeric powder and salt with 2 tablespoons of water and mix well.
-Add the cubes of bread and mix well till the bread is coated with the curd mixture.
-Heat the oil in a non-stick pan and add the cumin seeds.
-When they crackle, add the green chillies, curry leaves and ginger and sauté for a few seconds.
-Add the onion slices and sauté till they are lightly browned.
-Add the bread mixture and sauté over low heat, stirring occasionally till the bread browns lightly.
-Serve the bread bhurji hot garnished with the coriander.</t>
-  </si>
-  <si>
-    <t>Accompaniments
-Lemony Tomato, Orange and Carrot Juice 
-Muskmelon, Apple and Green Grapes Juice 
-Papaya Mango Smoothie ( Healthy Breakfast) 
-Pineapple Sweet Lime Drink 
-Nutrient values (Abbrv) per serving
-Energy 235 cal
-Protein 7.5 g
-Carbohydrates 36 g
-Fiber 0.9 g
-Fat 6.8 g
-Cholesterol 0 mg
-Sodium 34.6 mg
-Click here to view calories for Bread Bhurji</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bread-bhurji-4678r</t>
-  </si>
-  <si>
-    <t>Food category</t>
-  </si>
-  <si>
-    <t>No Category Available</t>
-  </si>
-  <si>
-    <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>Recipe# 770
-12 Aug 22</t>
+    <t>Recipe# 770</t>
   </si>
   <si>
     <t>Maharashtrian Patal Bhaji, Paatal Bhaji</t>
@@ -1275,8 +358,7 @@
     <t>https://www.tarladalal.com/maharashtrian-patal-bhaji-paatal-bhaji-770r</t>
   </si>
   <si>
-    <t>Recipe# 41753
-24 Jun 22</t>
+    <t>Recipe# 41753</t>
   </si>
   <si>
     <t>Ginger Cinnamon Tea</t>
@@ -1313,8 +395,7 @@
     <t>https://www.tarladalal.com/ginger-cinnamon-tea-41753r</t>
   </si>
   <si>
-    <t>Recipe# 3892
-14 Jun 22</t>
+    <t>Recipe# 3892</t>
   </si>
   <si>
     <t>Bajra Roti</t>
@@ -1327,6 +408,9 @@
 whole wheat flour (gehun ka atta) for rolling
 4 tsp ghee for smearing
 white butter</t>
+  </si>
+  <si>
+    <t>20 mins</t>
   </si>
   <si>
     <t>Method
@@ -1364,8 +448,7 @@
     <t>https://www.tarladalal.com/bajra-roti-3892r</t>
   </si>
   <si>
-    <t>Recipe# 40185
-05 Oct 21</t>
+    <t>Recipe# 40185</t>
   </si>
   <si>
     <t>Onion Tomato Koshimbir</t>
@@ -1405,8 +488,7 @@
     <t>https://www.tarladalal.com/onion-tomato-koshimbir-40185r</t>
   </si>
   <si>
-    <t>Recipe# 763
-29 Sep 21</t>
+    <t>Recipe# 763</t>
   </si>
   <si>
     <t>Anti- Aging Breakfast Platter</t>
@@ -1426,6 +508,9 @@
 5 almonds (badam)</t>
   </si>
   <si>
+    <t>0 mins</t>
+  </si>
+  <si>
     <t>Method
 For anti- aging breakfast platter
 To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
@@ -1446,8 +531,7 @@
     <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
   </si>
   <si>
-    <t>Recipe# 41719
-17 Sep 21</t>
+    <t>Recipe# 41719</t>
   </si>
   <si>
     <t>Kokum and Chia Seed Drink</t>
@@ -1483,8 +567,7 @@
     <t>https://www.tarladalal.com/kokum-and-chia-seed-drink-41719r</t>
   </si>
   <si>
-    <t>Recipe# 1654
-13 Sep 21</t>
+    <t>Recipe# 1654</t>
   </si>
   <si>
     <t>Tomato Chutney ( Idlis and Dosas)</t>
@@ -1535,8 +618,7 @@
     <t>https://www.tarladalal.com/tomato-chutney----idlis-and-dosas-1654r</t>
   </si>
   <si>
-    <t>Recipe# 7468
-05 Apr 19</t>
+    <t>Recipe# 7468</t>
   </si>
   <si>
     <t>Fenugreek and Mushroom Brown Rice</t>
@@ -1581,8 +663,7 @@
     <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
   </si>
   <si>
-    <t>Recipe# 38028
-18 Jul 21</t>
+    <t>Recipe# 38028</t>
   </si>
   <si>
     <t>Chana Dal and Cabbage Tikki</t>
@@ -1631,8 +712,7 @@
     <t>https://www.tarladalal.com/chana-dal-and-cabbage-tikki-38028r</t>
   </si>
   <si>
-    <t>Recipe# 6420
-11 Jun 21</t>
+    <t>Recipe# 6420</t>
   </si>
   <si>
     <t>Usal ( Healthy Subzi)</t>
@@ -1684,8 +764,7 @@
     <t>https://www.tarladalal.com/usal--healthy-subzi-6420r</t>
   </si>
   <si>
-    <t>Recipe# 22308
-27 Oct 22</t>
+    <t>Recipe# 22308</t>
   </si>
   <si>
     <t>Poha Nachni Handvo</t>
@@ -1743,8 +822,7 @@
     <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
   </si>
   <si>
-    <t>Recipe# 42385
-27 Apr 21</t>
+    <t>Recipe# 42385</t>
   </si>
   <si>
     <t>Dal Rasam, South Indian Toovar Dal Rasam</t>
@@ -1774,6 +852,9 @@
 steamed rice (chawal)</t>
   </si>
   <si>
+    <t>30 mins</t>
+  </si>
+  <si>
     <t>Method
 For the rasam powder
 Heat a small non-stick pan and dry roast all the ingredients on a medium flame for 2 minutes.
@@ -1805,8 +886,7 @@
     <t>https://www.tarladalal.com/dal-rasam-south-indian-toovar-dal-rasam-42385r</t>
   </si>
   <si>
-    <t>Recipe# 33249
-30 Mar 21</t>
+    <t>Recipe# 33249</t>
   </si>
   <si>
     <t>Masoor Dal with Spinach, Protein Rich Recipes</t>
@@ -1879,8 +959,7 @@
     <t>https://www.tarladalal.com/masoor-dal-with-spinach-protein-rich-recipes-33249r</t>
   </si>
   <si>
-    <t>Recipe# 41017
-18 Apr 23</t>
+    <t>Recipe# 41017</t>
   </si>
   <si>
     <t>Spinach Dosa</t>
@@ -1928,8 +1007,7 @@
     <t>https://www.tarladalal.com/spinach-dosa-41017r</t>
   </si>
   <si>
-    <t>Recipe# 38991
-17 Sep 22</t>
+    <t>Recipe# 38991</t>
   </si>
   <si>
     <t>Moong Dal and Spinach Idli</t>
@@ -1976,8 +1054,7 @@
     <t>https://www.tarladalal.com/moong-dal-and-spinach-idli-38991r</t>
   </si>
   <si>
-    <t>Recipe# 38986
-27 Feb 21</t>
+    <t>Recipe# 38986</t>
   </si>
   <si>
     <t>Zucchini and Carrot Pancake</t>
@@ -2029,8 +1106,7 @@
     <t>https://www.tarladalal.com/zucchini-and-carrot-pancake-38986r</t>
   </si>
   <si>
-    <t>Recipe# 22144
-24 Feb 21</t>
+    <t>Recipe# 22144</t>
   </si>
   <si>
     <t>Brinjal Rice ( Zero Oil Recipe )</t>
@@ -2089,8 +1165,7 @@
     <t>https://www.tarladalal.com/brinjal-rice---zero-oil-recipe--22144r</t>
   </si>
   <si>
-    <t>Recipe# 3503
-24 Feb 21</t>
+    <t>Recipe# 3503</t>
   </si>
   <si>
     <t>Carrot Methi Subzi ( Delicious Diabetic Recipe)</t>
@@ -2139,8 +1214,7 @@
     <t>https://www.tarladalal.com/carrot-methi-subzi--delicious-diabetic-recipe-3503r</t>
   </si>
   <si>
-    <t>Recipe# 7437
-22 Feb 22</t>
+    <t>Recipe# 7437</t>
   </si>
   <si>
     <t>Oats and Roasted Capsicum Soup</t>
@@ -2184,8 +1258,7 @@
     <t>https://www.tarladalal.com/oats-and-roasted-capsicum-soup-7437r</t>
   </si>
   <si>
-    <t>Recipe# 22219
-21 Jul 22</t>
+    <t>Recipe# 22219</t>
   </si>
   <si>
     <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
@@ -2230,8 +1303,7 @@
     <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
   </si>
   <si>
-    <t>Recipe# 42771
-17 Oct 20</t>
+    <t>Recipe# 42771</t>
   </si>
   <si>
     <t>Dal Fry with Toor Dal</t>
@@ -2290,8 +1362,7 @@
     <t>https://www.tarladalal.com/dal-fry-with-toor-dal-42771r</t>
   </si>
   <si>
-    <t>Recipe# 7442
-03 Nov 22</t>
+    <t>Recipe# 7442</t>
   </si>
   <si>
     <t>Cabbage, Carrot and Lettuce Salad</t>
@@ -2327,8 +1398,7 @@
     <t>https://www.tarladalal.com/cabbage-carrot-and-lettuce-salad-7442r</t>
   </si>
   <si>
-    <t>Recipe# 42412
-29 Oct 20</t>
+    <t>Recipe# 42412</t>
   </si>
   <si>
     <t>Masala Makhana Recipe, Healthy Lotus Seed Snack</t>
@@ -2366,8 +1436,7 @@
     <t>https://www.tarladalal.com/masala-makhana-recipe-healthy-lotus-seed-snack-42412r</t>
   </si>
   <si>
-    <t>Recipe# 5596
-03 May 22</t>
+    <t>Recipe# 5596</t>
   </si>
   <si>
     <t>Date and Walnut Balls</t>
@@ -2400,8 +1469,7 @@
     <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
   </si>
   <si>
-    <t>Recipe# 38987
-28 Jan 23</t>
+    <t>Recipe# 38987</t>
   </si>
   <si>
     <t>Oats Upma ( Breakfast Recipes)</t>
@@ -2460,8 +1528,7 @@
     <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
   </si>
   <si>
-    <t>Recipe# 4665
-17 Oct 20</t>
+    <t>Recipe# 4665</t>
   </si>
   <si>
     <t>Rice and Moong Dal Idli</t>
@@ -2509,8 +1576,7 @@
     <t>https://www.tarladalal.com/rice-and-moong-dal-idli-4665r</t>
   </si>
   <si>
-    <t>Recipe# 32997
-24 Sep 22</t>
+    <t>Recipe# 32997</t>
   </si>
   <si>
     <t>Paneer Tamatar Paratha</t>
@@ -2626,1765 +1692,1072 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="J4" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>195</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>201</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>207</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>213</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>219</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>225</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>231</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>237</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>243</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>251</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>257</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>263</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>270</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>277</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>284</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>286</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>291</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>297</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>301</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>304</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>308</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>310</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>316</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>322</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>328</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>332</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>334</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F32" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="G32" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>340</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>346</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>351</v>
+        <v>226</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>352</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>56</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
